--- a/data/features 설명.xlsx
+++ b/data/features 설명.xlsx
@@ -14220,13 +14220,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{260A4BE2-5B12-4C3C-8703-1AC7842EE4BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655A9889-8F1E-44EA-9C95-83C65A8BFC19}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6325493F-FA77-4E33-851E-C0A7E8614D75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23D6EFE-FF9C-423D-BD62-237CEE7EA47A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC3A93C2-DD2A-4007-849F-46A85CF7E566}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30EE1F15-976B-4DAD-8B68-CB24A3D24675}"/>
 </file>